--- a/metrics_comparison.xlsx
+++ b/metrics_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\side_project\credit_card_fraud_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D96E6C5A-430C-4976-A9C1-4C639A3146D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7C80EF-BE20-4FCE-86BA-6E7BC5242450}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{E1254355-D19B-4391-AFEC-A34D43D04426}"/>
+    <workbookView xWindow="11055" yWindow="5550" windowWidth="10035" windowHeight="8520" xr2:uid="{E1254355-D19B-4391-AFEC-A34D43D04426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>f1_score</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>log all</t>
+  </si>
+  <si>
+    <t>rf with top7</t>
+  </si>
+  <si>
+    <t>rf with top6</t>
+  </si>
+  <si>
+    <t>log oversampling</t>
   </si>
 </sst>
 </file>
@@ -101,9 +110,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,75 +430,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B25634-A305-4BDD-AEC2-84643C3E67C6}">
-  <dimension ref="B1:D6"/>
+  <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>0.998</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.999</v>
+      <c r="D2" s="2">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.97909999999999997</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0.65800000000000003</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.68700000000000006</v>
+      <c r="D3" s="2">
+        <v>0.68659999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.68320000000000003</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.67869999999999997</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.12759999999999999</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>0.7</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.89600000000000002</v>
+      <c r="D4" s="2">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6.88E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>0.621</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.55600000000000005</v>
+      <c r="D5" s="2">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.55649999999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.879</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>0.81</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.77800000000000002</v>
+      <c r="D6" s="2">
+        <v>0.7782</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.7782</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.7782</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.92910000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/metrics_comparison.xlsx
+++ b/metrics_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\side_project\credit_card_fraud_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7C80EF-BE20-4FCE-86BA-6E7BC5242450}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B206169F-303B-44B5-BCF7-CE40F405B325}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11055" yWindow="5550" windowWidth="10035" windowHeight="8520" xr2:uid="{E1254355-D19B-4391-AFEC-A34D43D04426}"/>
+    <workbookView xWindow="11828" yWindow="5160" windowWidth="10035" windowHeight="8520" xr2:uid="{E1254355-D19B-4391-AFEC-A34D43D04426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>f1_score</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>log oversampling</t>
+  </si>
+  <si>
+    <t>log over-top10</t>
   </si>
 </sst>
 </file>
@@ -430,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B25634-A305-4BDD-AEC2-84643C3E67C6}">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>6</v>
       </c>
@@ -454,8 +457,11 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -474,8 +480,11 @@
       <c r="G2" s="3">
         <v>0.97909999999999997</v>
       </c>
+      <c r="H2" s="3">
+        <v>0.94299999999999995</v>
+      </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -494,8 +503,11 @@
       <c r="G3" s="3">
         <v>0.12759999999999999</v>
       </c>
+      <c r="H3" s="3">
+        <v>5.0500000000000003E-2</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -514,8 +526,11 @@
       <c r="G4" s="3">
         <v>6.88E-2</v>
       </c>
+      <c r="H4" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -534,8 +549,11 @@
       <c r="G5" s="3">
         <v>0.879</v>
       </c>
+      <c r="H5" s="3">
+        <v>0.871</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -553,6 +571,9 @@
       </c>
       <c r="G6" s="3">
         <v>0.92910000000000004</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.90710000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/metrics_comparison.xlsx
+++ b/metrics_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\side_project\credit_card_fraud_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B206169F-303B-44B5-BCF7-CE40F405B325}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4E3172-85AD-410A-A1E6-18994F13D33D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11828" yWindow="5160" windowWidth="10035" windowHeight="8520" xr2:uid="{E1254355-D19B-4391-AFEC-A34D43D04426}"/>
+    <workbookView xWindow="893" yWindow="2467" windowWidth="10034" windowHeight="8521" xr2:uid="{E1254355-D19B-4391-AFEC-A34D43D04426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>f1_score</t>
   </si>
@@ -67,6 +67,75 @@
   </si>
   <si>
     <t>log over-top10</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>non-fraud</t>
+  </si>
+  <si>
+    <t>rfc over-stand-top9</t>
+  </si>
+  <si>
+    <t>log over-stand-top9</t>
+  </si>
+  <si>
+    <t>rfc over-stand-all</t>
+  </si>
+  <si>
+    <t>V17</t>
+  </si>
+  <si>
+    <t>V14</t>
+  </si>
+  <si>
+    <t>V12</t>
+  </si>
+  <si>
+    <t>V10</t>
+  </si>
+  <si>
+    <t>V26</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V7</t>
+  </si>
+  <si>
+    <t>V27</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>no more log</t>
+  </si>
+  <si>
+    <t>standadization necessary for Amount and Time</t>
+  </si>
+  <si>
+    <t>using all doesn't increase F1 score too much..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">now the point will be how to efficiently select the features. </t>
   </si>
 </sst>
 </file>
@@ -76,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +160,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,11 +204,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,6 +230,136 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519113</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F40D6674-7882-4B75-9D65-86BC9F76593E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666749" y="1309687"/>
+          <a:ext cx="4386264" cy="1633538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>If we have high recall and low precision, our model is good at detecting fraud obs but fail to predicting non fraud obs. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>if we have low recall and high precision, our model fails at</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> detecting fraud obs. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>precision = tp/tp+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>fp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>: less fp: less detecting non-fraud power</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>recall = tp/tp+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>fn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>: less fn: a lot of alerts (lead to customer non-satisfaction)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,15 +659,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B25634-A305-4BDD-AEC2-84643C3E67C6}">
-  <dimension ref="B1:H6"/>
+  <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>6</v>
       </c>
@@ -454,14 +689,23 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -483,9 +727,18 @@
       <c r="H2" s="3">
         <v>0.94299999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+      <c r="I2" s="3">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1">
@@ -506,8 +759,17 @@
       <c r="H3" s="3">
         <v>5.0500000000000003E-2</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I3" s="5">
+        <v>0.79669999999999996</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.1028</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.82909999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -529,8 +791,17 @@
       <c r="H4" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I4" s="6">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5.45E-2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.88180000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -552,8 +823,17 @@
       <c r="H5" s="3">
         <v>0.871</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I5" s="5">
+        <v>0.7903</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.9032</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.7823</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -575,8 +855,105 @@
       <c r="H6" s="3">
         <v>0.90710000000000002</v>
       </c>
+      <c r="I6" s="3">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.45">
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/metrics_comparison.xlsx
+++ b/metrics_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\side_project\credit_card_fraud_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4E3172-85AD-410A-A1E6-18994F13D33D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FFFB61-0F70-4ECB-8FB0-F38AD7A508C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="893" yWindow="2467" windowWidth="10034" windowHeight="8521" xr2:uid="{E1254355-D19B-4391-AFEC-A34D43D04426}"/>
+    <workbookView xWindow="11340" yWindow="4050" windowWidth="10035" windowHeight="8520" xr2:uid="{E1254355-D19B-4391-AFEC-A34D43D04426}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>f1_score</t>
   </si>
@@ -136,6 +136,33 @@
   </si>
   <si>
     <t xml:space="preserve">now the point will be how to efficiently select the features. </t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V11</t>
+  </si>
+  <si>
+    <t>V16</t>
+  </si>
+  <si>
+    <t>79/84%</t>
+  </si>
+  <si>
+    <t>xgboost-all</t>
+  </si>
+  <si>
+    <t>rfc-SelectFromModel</t>
+  </si>
+  <si>
+    <t>xgboost-SelectFromModel</t>
+  </si>
+  <si>
+    <t>log_reg-SelectFromModel</t>
   </si>
 </sst>
 </file>
@@ -204,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -214,6 +241,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B25634-A305-4BDD-AEC2-84643C3E67C6}">
-  <dimension ref="B1:K20"/>
+  <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -676,7 +704,7 @@
     <col min="11" max="11" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>6</v>
       </c>
@@ -704,8 +732,20 @@
       <c r="K1" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -736,8 +776,20 @@
       <c r="K2" s="3">
         <v>0.99939999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L2" s="3">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -768,8 +820,20 @@
       <c r="K3" s="5">
         <v>0.82909999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L3" s="3">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.2137</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.154</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.1081</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -800,8 +864,20 @@
       <c r="K4" s="5">
         <v>0.88180000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L4" s="3">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.1221</v>
+      </c>
+      <c r="N4" s="3">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>5.7599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -832,8 +908,20 @@
       <c r="K5" s="6">
         <v>0.7823</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.8548</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.879</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.8871</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -864,65 +952,104 @@
       <c r="K6" s="3">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L6" s="3">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.92209999999999992</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.93120000000000003</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.93089999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
         <v>20</v>
       </c>
       <c r="K7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
         <v>21</v>
       </c>
       <c r="K8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
         <v>22</v>
       </c>
       <c r="K9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
         <v>23</v>
       </c>
       <c r="K10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
         <v>29</v>
       </c>

--- a/metrics_comparison.xlsx
+++ b/metrics_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\side_project\credit_card_fraud_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FFFB61-0F70-4ECB-8FB0-F38AD7A508C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D594069A-A850-462C-86B5-71DFF240B471}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11340" yWindow="4050" windowWidth="10035" windowHeight="8520" xr2:uid="{E1254355-D19B-4391-AFEC-A34D43D04426}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>f1_score</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>V16</t>
-  </si>
-  <si>
-    <t>79/84%</t>
   </si>
   <si>
     <t>xgboost-all</t>
@@ -690,7 +687,7 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -733,16 +730,16 @@
         <v>19</v>
       </c>
       <c r="L1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
@@ -908,8 +905,8 @@
       <c r="K5" s="6">
         <v>0.7823</v>
       </c>
-      <c r="L5" t="s">
-        <v>38</v>
+      <c r="L5" s="3">
+        <v>0.7984</v>
       </c>
       <c r="M5" s="3">
         <v>0.8548</v>
